--- a/target/test-classes/dataDriven/dataPool/DataPrueba.xlsx
+++ b/target/test-classes/dataDriven/dataPool/DataPrueba.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse_WS\RimacProcuradorSerenity\RimacProcuradorMobileSrenity\src\test\resources\dataDriven\dataPool\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse_WS\RimacProcuradorSerenityJenkins\RimacProcuradorMobileSrenity\src\test\resources\dataDriven\dataPool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD822C1E-DEE9-4C5D-9EA9-BF39257D7836}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF8F864-A885-4BAC-90A3-AEFC4A97F2D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -139,10 +139,10 @@
     <t>ABA419</t>
   </si>
   <si>
-    <t>ABA435</t>
-  </si>
-  <si>
-    <t>ABA436</t>
+    <t>ABA500</t>
+  </si>
+  <si>
+    <t>ABA501</t>
   </si>
 </sst>
 </file>
@@ -748,7 +748,7 @@
   <dimension ref="A1:ALY6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -796,7 +796,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>8</v>
@@ -804,7 +804,7 @@
       <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -830,7 +830,7 @@
       <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F3" s="1" t="s">
